--- a/doc/Страны для калькулятора.xlsx
+++ b/doc/Страны для калькулятора.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$254</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="738">
   <si>
     <t>id</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t xml:space="preserve">  Лихтенштейн </t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -1246,9 +1243,6 @@
     <t xml:space="preserve">  Монако </t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -1387,9 +1381,6 @@
     <t xml:space="preserve">  Норвегия </t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
@@ -1585,9 +1576,6 @@
     <t xml:space="preserve">  Сан-Марино </t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
@@ -2137,9 +2125,6 @@
     <t>244</t>
   </si>
   <si>
-    <t xml:space="preserve"> Эритрея </t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -2149,9 +2134,6 @@
     <t xml:space="preserve">  Эстония  </t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>246</t>
   </si>
   <si>
@@ -2209,9 +2191,6 @@
     <t>252</t>
   </si>
   <si>
-    <t>Шенгенские страны</t>
-  </si>
-  <si>
     <t>Шенген</t>
   </si>
   <si>
@@ -2240,6 +2219,18 @@
   </si>
   <si>
     <t>Shengen</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Соединенные Штаты Америки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Эритрея </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Шенгенские страны</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2303,6 +2294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2605,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G496"/>
+  <dimension ref="A1:G497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2636,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2656,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2673,10 +2670,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -2696,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -2716,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2736,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -2756,7 +2753,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -2776,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -2796,7 +2793,7 @@
         <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -2816,7 +2813,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -2836,7 +2833,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -2856,7 +2853,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2873,10 +2870,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>5</v>
@@ -2896,7 +2893,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2905,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,7 +2916,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2928,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,7 +2939,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2962,7 +2959,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2982,7 +2979,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3002,7 +2999,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -3011,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3025,7 +3022,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -3045,7 +3042,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -3054,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3068,7 +3065,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -3088,7 +3085,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -3097,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3111,7 +3108,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -3128,10 +3125,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3151,7 +3148,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -3171,7 +3168,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -3191,7 +3188,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -3220,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3234,7 +3231,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -3254,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -3274,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -3283,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,10 +3293,10 @@
       <c r="C33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E33" s="8">
         <v>0</v>
       </c>
       <c r="F33" s="6">
@@ -3316,10 +3313,10 @@
       <c r="C34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E34" s="8">
         <v>0</v>
       </c>
       <c r="F34" s="6">
@@ -3336,10 +3333,10 @@
       <c r="C35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E35" s="8">
         <v>0</v>
       </c>
       <c r="F35" s="6">
@@ -3356,10 +3353,10 @@
       <c r="C36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" s="8">
         <v>0</v>
       </c>
       <c r="F36" s="6">
@@ -3376,10 +3373,10 @@
       <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E37" s="8">
         <v>0</v>
       </c>
       <c r="F37" s="6">
@@ -3396,10 +3393,10 @@
       <c r="C38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="6">
@@ -3416,10 +3413,10 @@
       <c r="C39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E39" s="8">
         <v>0</v>
       </c>
       <c r="F39" s="6">
@@ -3436,10 +3433,10 @@
       <c r="C40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E40" s="8">
         <v>0</v>
       </c>
       <c r="F40" s="6">
@@ -3456,10 +3453,10 @@
       <c r="C41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E41" s="8">
         <v>0</v>
       </c>
       <c r="F41" s="6">
@@ -3474,12 +3471,12 @@
         <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E42" s="4">
+        <v>733</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="6">
@@ -3496,17 +3493,17 @@
       <c r="C43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E43" s="8">
         <v>0</v>
       </c>
       <c r="F43" s="6">
         <v>2</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3519,10 +3516,10 @@
       <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="6">
@@ -3539,10 +3536,10 @@
       <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E45" s="8">
         <v>0</v>
       </c>
       <c r="F45" s="6">
@@ -3559,10 +3556,10 @@
       <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E46" s="8">
         <v>0</v>
       </c>
       <c r="F46" s="6">
@@ -3579,10 +3576,10 @@
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E47" s="8">
         <v>0</v>
       </c>
       <c r="F47" s="6">
@@ -3599,17 +3596,17 @@
       <c r="C48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E48" s="8">
         <v>0</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3622,17 +3619,17 @@
       <c r="C49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E49" s="8">
         <v>0</v>
       </c>
       <c r="F49" s="6">
         <v>2</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,10 +3642,10 @@
       <c r="C50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E50" s="8">
         <v>0</v>
       </c>
       <c r="F50" s="6">
@@ -3665,10 +3662,10 @@
       <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E51" s="8">
         <v>0</v>
       </c>
       <c r="F51" s="6">
@@ -3685,10 +3682,10 @@
       <c r="C52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="D52" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E52" s="8">
         <v>0</v>
       </c>
       <c r="F52" s="6">
@@ -3705,40 +3702,40 @@
       <c r="C53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D53" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E53" s="8">
         <v>0</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E54" s="4">
+        <v>661</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E54" s="8">
         <v>0</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3751,10 +3748,10 @@
       <c r="C55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E55" s="8">
         <v>0</v>
       </c>
       <c r="F55" s="6">
@@ -3771,10 +3768,10 @@
       <c r="C56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E56" s="8">
         <v>0</v>
       </c>
       <c r="F56" s="6">
@@ -3789,12 +3786,12 @@
         <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E57" s="4">
+        <v>733</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="6">
@@ -3811,10 +3808,10 @@
       <c r="C58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E58" s="8">
         <v>0</v>
       </c>
       <c r="F58" s="6">
@@ -3831,10 +3828,10 @@
       <c r="C59" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E59" s="8">
         <v>0</v>
       </c>
       <c r="F59" s="6">
@@ -3851,17 +3848,17 @@
       <c r="C60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E60" s="8">
         <v>0</v>
       </c>
       <c r="F60" s="6">
         <v>2</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3874,10 +3871,10 @@
       <c r="C61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E61" s="8">
         <v>0</v>
       </c>
       <c r="F61" s="6">
@@ -3894,17 +3891,17 @@
       <c r="C62" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E62" s="8">
         <v>0</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3917,10 +3914,10 @@
       <c r="C63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E63" s="8">
         <v>0</v>
       </c>
       <c r="F63" s="6">
@@ -3935,12 +3932,12 @@
         <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E64" s="4">
+        <v>733</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E64" s="8">
         <v>1</v>
       </c>
       <c r="F64" s="6">
@@ -3957,10 +3954,10 @@
       <c r="C65" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E65" s="8">
         <v>0</v>
       </c>
       <c r="F65" s="6">
@@ -3977,10 +3974,10 @@
       <c r="C66" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E66" s="8">
         <v>0</v>
       </c>
       <c r="F66" s="6">
@@ -3995,12 +3992,12 @@
         <v>201</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E67" s="4">
+        <v>733</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E67" s="8">
         <v>1</v>
       </c>
       <c r="F67" s="6">
@@ -4017,10 +4014,10 @@
       <c r="C68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E68" s="8">
         <v>0</v>
       </c>
       <c r="F68" s="6">
@@ -4037,10 +4034,10 @@
       <c r="C69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E69" s="8">
         <v>0</v>
       </c>
       <c r="F69" s="6">
@@ -4057,17 +4054,17 @@
       <c r="C70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E70" s="8">
         <v>0</v>
       </c>
       <c r="F70" s="6">
         <v>2</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4080,17 +4077,17 @@
       <c r="C71" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="D71" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E71" s="8">
         <v>0</v>
       </c>
       <c r="F71" s="6">
         <v>2</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4103,10 +4100,10 @@
       <c r="C72" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D72" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E72" s="8">
         <v>0</v>
       </c>
       <c r="F72" s="6">
@@ -4123,10 +4120,10 @@
       <c r="C73" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="D73" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E73" s="8">
         <v>0</v>
       </c>
       <c r="F73" s="6">
@@ -4143,10 +4140,10 @@
       <c r="C74" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="D74" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E74" s="8">
         <v>0</v>
       </c>
       <c r="F74" s="6">
@@ -4163,10 +4160,10 @@
       <c r="C75" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E75" s="8">
         <v>0</v>
       </c>
       <c r="F75" s="6">
@@ -4183,10 +4180,10 @@
       <c r="C76" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D76" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E76" s="8">
         <v>0</v>
       </c>
       <c r="F76" s="6">
@@ -4203,10 +4200,10 @@
       <c r="C77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E77" s="8">
         <v>0</v>
       </c>
       <c r="F77" s="6">
@@ -4223,10 +4220,10 @@
       <c r="C78" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E78" s="4">
+      <c r="D78" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E78" s="8">
         <v>0</v>
       </c>
       <c r="F78" s="6">
@@ -4243,10 +4240,10 @@
       <c r="C79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E79" s="4">
+      <c r="D79" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E79" s="8">
         <v>0</v>
       </c>
       <c r="F79" s="6">
@@ -4263,10 +4260,10 @@
       <c r="C80" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E80" s="4">
+      <c r="D80" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E80" s="8">
         <v>0</v>
       </c>
       <c r="F80" s="6">
@@ -4283,10 +4280,10 @@
       <c r="C81" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="D81" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E81" s="8">
         <v>0</v>
       </c>
       <c r="F81" s="6">
@@ -4303,10 +4300,10 @@
       <c r="C82" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="D82" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E82" s="8">
         <v>0</v>
       </c>
       <c r="F82" s="6">
@@ -4323,10 +4320,10 @@
       <c r="C83" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E83" s="8">
         <v>0</v>
       </c>
       <c r="F83" s="6">
@@ -4343,10 +4340,10 @@
       <c r="C84" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="D84" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E84" s="8">
         <v>0</v>
       </c>
       <c r="F84" s="6">
@@ -4361,12 +4358,12 @@
         <v>248</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E85" s="4">
+        <v>733</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E85" s="8">
         <v>1</v>
       </c>
       <c r="F85" s="6">
@@ -4381,12 +4378,12 @@
         <v>250</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E86" s="4">
+        <v>733</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E86" s="8">
         <v>1</v>
       </c>
       <c r="F86" s="6">
@@ -4403,10 +4400,10 @@
       <c r="C87" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E87" s="8">
         <v>0</v>
       </c>
       <c r="F87" s="6">
@@ -4423,10 +4420,10 @@
       <c r="C88" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E88" s="4">
+      <c r="D88" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E88" s="8">
         <v>0</v>
       </c>
       <c r="F88" s="6">
@@ -4443,10 +4440,10 @@
       <c r="C89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="D89" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E89" s="8">
         <v>0</v>
       </c>
       <c r="F89" s="6">
@@ -4463,10 +4460,10 @@
       <c r="C90" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="D90" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E90" s="8">
         <v>0</v>
       </c>
       <c r="F90" s="6">
@@ -4483,10 +4480,10 @@
       <c r="C91" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D91" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E91" s="8">
         <v>0</v>
       </c>
       <c r="F91" s="6">
@@ -4503,17 +4500,17 @@
       <c r="C92" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D92" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E92" s="8">
         <v>0</v>
       </c>
       <c r="F92" s="6">
         <v>2</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4526,10 +4523,10 @@
       <c r="C93" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D93" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="8">
         <v>0</v>
       </c>
       <c r="F93" s="6">
@@ -4546,10 +4543,10 @@
       <c r="C94" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D94" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E94" s="8">
         <v>0</v>
       </c>
       <c r="F94" s="6">
@@ -4564,12 +4561,12 @@
         <v>279</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E95" s="4">
+        <v>733</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E95" s="8">
         <v>1</v>
       </c>
       <c r="F95" s="6">
@@ -4586,10 +4583,10 @@
       <c r="C96" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="D96" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E96" s="8">
         <v>0</v>
       </c>
       <c r="F96" s="6">
@@ -4606,10 +4603,10 @@
       <c r="C97" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="D97" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E97" s="8">
         <v>0</v>
       </c>
       <c r="F97" s="6">
@@ -4626,10 +4623,10 @@
       <c r="C98" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E98" s="4">
+      <c r="D98" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E98" s="8">
         <v>0</v>
       </c>
       <c r="F98" s="6">
@@ -4646,10 +4643,10 @@
       <c r="C99" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E99" s="4">
+      <c r="D99" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E99" s="8">
         <v>0</v>
       </c>
       <c r="F99" s="6">
@@ -4666,10 +4663,10 @@
       <c r="C100" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E100" s="4">
+      <c r="D100" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E100" s="8">
         <v>0</v>
       </c>
       <c r="F100" s="6">
@@ -4686,10 +4683,10 @@
       <c r="C101" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E101" s="4">
+      <c r="D101" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E101" s="8">
         <v>0</v>
       </c>
       <c r="F101" s="6">
@@ -4706,17 +4703,17 @@
       <c r="C102" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E102" s="4">
+      <c r="D102" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E102" s="8">
         <v>0</v>
       </c>
       <c r="F102" s="6">
         <v>2</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4729,10 +4726,10 @@
       <c r="C103" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E103" s="4">
+      <c r="D103" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E103" s="8">
         <v>0</v>
       </c>
       <c r="F103" s="6">
@@ -4749,17 +4746,17 @@
       <c r="C104" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E104" s="4">
+      <c r="D104" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E104" s="8">
         <v>0</v>
       </c>
       <c r="F104" s="6">
         <v>2</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4772,10 +4769,10 @@
       <c r="C105" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="D105" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E105" s="8">
         <v>0</v>
       </c>
       <c r="F105" s="6">
@@ -4792,17 +4789,17 @@
       <c r="C106" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="D106" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E106" s="8">
         <v>0</v>
       </c>
       <c r="F106" s="6">
         <v>2</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4815,10 +4812,10 @@
       <c r="C107" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="D107" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E107" s="8">
         <v>0</v>
       </c>
       <c r="F107" s="6">
@@ -4835,10 +4832,10 @@
       <c r="C108" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E108" s="4">
+      <c r="D108" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E108" s="8">
         <v>0</v>
       </c>
       <c r="F108" s="6">
@@ -4853,12 +4850,12 @@
         <v>334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E109" s="4">
+        <v>733</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E109" s="8">
         <v>1</v>
       </c>
       <c r="F109" s="6">
@@ -4875,10 +4872,10 @@
       <c r="C110" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="D110" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E110" s="8">
         <v>0</v>
       </c>
       <c r="F110" s="6">
@@ -4895,10 +4892,10 @@
       <c r="C111" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E111" s="8">
         <v>0</v>
       </c>
       <c r="F111" s="6">
@@ -4915,10 +4912,10 @@
       <c r="C112" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E112" s="4">
+      <c r="D112" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E112" s="8">
         <v>0</v>
       </c>
       <c r="F112" s="6">
@@ -4935,10 +4932,10 @@
       <c r="C113" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="D113" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E113" s="8">
         <v>0</v>
       </c>
       <c r="F113" s="6">
@@ -4953,12 +4950,12 @@
         <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E114" s="4">
+        <v>733</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E114" s="8">
         <v>1</v>
       </c>
       <c r="F114" s="6">
@@ -4973,13 +4970,13 @@
         <v>350</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E115" s="4">
-        <v>0</v>
+        <v>733</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1</v>
       </c>
       <c r="F115" s="6">
         <v>1</v>
@@ -4987,18 +4984,18 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E116" s="4">
+        <v>733</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E116" s="8">
         <v>1</v>
       </c>
       <c r="F116" s="6">
@@ -5007,18 +5004,18 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="D117" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E117" s="8">
         <v>0</v>
       </c>
       <c r="F117" s="6">
@@ -5027,18 +5024,18 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="D118" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E118" s="8">
         <v>0</v>
       </c>
       <c r="F118" s="6">
@@ -5047,18 +5044,18 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E119" s="4">
+      <c r="D119" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E119" s="8">
         <v>0</v>
       </c>
       <c r="F119" s="6">
@@ -5067,18 +5064,18 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="D120" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E120" s="8">
         <v>0</v>
       </c>
       <c r="F120" s="6">
@@ -5087,18 +5084,18 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E121" s="4">
+      <c r="D121" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E121" s="8">
         <v>0</v>
       </c>
       <c r="F121" s="6">
@@ -5115,10 +5112,10 @@
       <c r="C122" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E122" s="4">
+      <c r="D122" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E122" s="8">
         <v>0</v>
       </c>
       <c r="F122" s="6">
@@ -5127,18 +5124,18 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E123" s="4">
+      <c r="D123" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E123" s="8">
         <v>0</v>
       </c>
       <c r="F123" s="6">
@@ -5147,18 +5144,18 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E124" s="4">
+      <c r="D124" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E124" s="8">
         <v>0</v>
       </c>
       <c r="F124" s="6">
@@ -5167,18 +5164,18 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E125" s="4">
+      <c r="D125" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E125" s="8">
         <v>0</v>
       </c>
       <c r="F125" s="6">
@@ -5187,18 +5184,18 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E126" s="4">
+      <c r="D126" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E126" s="8">
         <v>0</v>
       </c>
       <c r="F126" s="6">
@@ -5207,18 +5204,18 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E127" s="4">
+        <v>733</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E127" s="8">
         <v>1</v>
       </c>
       <c r="F127" s="6">
@@ -5227,18 +5224,18 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E128" s="4">
+      <c r="D128" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E128" s="8">
         <v>0</v>
       </c>
       <c r="F128" s="6">
@@ -5247,18 +5244,18 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E129" s="4">
+      <c r="D129" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E129" s="8">
         <v>0</v>
       </c>
       <c r="F129" s="6">
@@ -5267,18 +5264,18 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E130" s="4">
+      <c r="D130" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E130" s="8">
         <v>0</v>
       </c>
       <c r="F130" s="6">
@@ -5287,41 +5284,41 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E131" s="4">
+      <c r="D131" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E131" s="8">
         <v>0</v>
       </c>
       <c r="F131" s="6">
         <v>2</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E132" s="4">
+      <c r="D132" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E132" s="8">
         <v>0</v>
       </c>
       <c r="F132" s="6">
@@ -5330,18 +5327,18 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E133" s="4">
+      <c r="D133" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E133" s="8">
         <v>0</v>
       </c>
       <c r="F133" s="6">
@@ -5350,19 +5347,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D134" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E134" s="4">
-        <v>0</v>
+      <c r="D134" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E134" s="8">
+        <v>1</v>
       </c>
       <c r="F134" s="6">
         <v>1</v>
@@ -5370,18 +5367,18 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E135" s="4">
+      <c r="D135" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E135" s="8">
         <v>0</v>
       </c>
       <c r="F135" s="6">
@@ -5390,18 +5387,18 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E136" s="4">
+      <c r="D136" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E136" s="8">
         <v>0</v>
       </c>
       <c r="F136" s="6">
@@ -5410,18 +5407,18 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E137" s="4">
+      <c r="D137" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E137" s="8">
         <v>0</v>
       </c>
       <c r="F137" s="6">
@@ -5430,18 +5427,18 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E138" s="4">
+      <c r="D138" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E138" s="8">
         <v>0</v>
       </c>
       <c r="F138" s="6">
@@ -5450,18 +5447,18 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E139" s="4">
+      <c r="D139" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E139" s="8">
         <v>0</v>
       </c>
       <c r="F139" s="6">
@@ -5470,18 +5467,18 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E140" s="4">
+      <c r="D140" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E140" s="8">
         <v>0</v>
       </c>
       <c r="F140" s="6">
@@ -5490,18 +5487,18 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E141" s="4">
+      <c r="D141" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E141" s="8">
         <v>0</v>
       </c>
       <c r="F141" s="6">
@@ -5510,18 +5507,18 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E142" s="4">
+      <c r="D142" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E142" s="8">
         <v>0</v>
       </c>
       <c r="F142" s="6">
@@ -5530,18 +5527,18 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E143" s="4">
+      <c r="D143" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E143" s="8">
         <v>0</v>
       </c>
       <c r="F143" s="6">
@@ -5558,10 +5555,10 @@
       <c r="C144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E144" s="4">
+      <c r="D144" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E144" s="8">
         <v>0</v>
       </c>
       <c r="F144" s="6">
@@ -5570,18 +5567,18 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E145" s="4">
+        <v>733</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E145" s="8">
         <v>1</v>
       </c>
       <c r="F145" s="6">
@@ -5590,41 +5587,41 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E146" s="4">
+      <c r="D146" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E146" s="8">
         <v>0</v>
       </c>
       <c r="F146" s="6">
         <v>2</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E147" s="4">
+      <c r="D147" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E147" s="8">
         <v>0</v>
       </c>
       <c r="F147" s="6">
@@ -5633,18 +5630,18 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E148" s="4">
+      <c r="D148" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E148" s="8">
         <v>0</v>
       </c>
       <c r="F148" s="6">
@@ -5653,18 +5650,18 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E149" s="4">
+      <c r="D149" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E149" s="8">
         <v>0</v>
       </c>
       <c r="F149" s="6">
@@ -5673,19 +5670,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D150" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E150" s="4">
-        <v>0</v>
+      <c r="D150" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E150" s="8">
+        <v>1</v>
       </c>
       <c r="F150" s="6">
         <v>1</v>
@@ -5693,18 +5690,18 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E151" s="4">
+        <v>459</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E151" s="8">
         <v>0</v>
       </c>
       <c r="F151" s="6">
@@ -5713,18 +5710,18 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E152" s="4">
+        <v>462</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E152" s="8">
         <v>0</v>
       </c>
       <c r="F152" s="6">
@@ -5733,18 +5730,18 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E153" s="4">
+      <c r="D153" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E153" s="8">
         <v>0</v>
       </c>
       <c r="F153" s="6">
@@ -5753,18 +5750,18 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E154" s="4">
+        <v>456</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E154" s="8">
         <v>0</v>
       </c>
       <c r="F154" s="6">
@@ -5773,18 +5770,18 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E155" s="4">
+        <v>501</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E155" s="8">
         <v>0</v>
       </c>
       <c r="F155" s="6">
@@ -5793,18 +5790,18 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E156" s="4">
+        <v>532</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E156" s="8">
         <v>0</v>
       </c>
       <c r="F156" s="6">
@@ -5821,10 +5818,10 @@
       <c r="C157" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E157" s="4">
+      <c r="D157" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E157" s="8">
         <v>0</v>
       </c>
       <c r="F157" s="6">
@@ -5833,18 +5830,18 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E158" s="4">
+        <v>485</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E158" s="8">
         <v>0</v>
       </c>
       <c r="F158" s="6">
@@ -5853,18 +5850,18 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E159" s="4">
+        <v>465</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E159" s="8">
         <v>0</v>
       </c>
       <c r="F159" s="6">
@@ -5873,18 +5870,18 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E160" s="4">
+        <v>468</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E160" s="8">
         <v>0</v>
       </c>
       <c r="F160" s="6">
@@ -5893,18 +5890,18 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E161" s="4">
+        <v>471</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E161" s="8">
         <v>0</v>
       </c>
       <c r="F161" s="6">
@@ -5913,41 +5910,41 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E162" s="4">
+        <v>474</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E162" s="8">
         <v>0</v>
       </c>
       <c r="F162" s="6">
         <v>2</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E163" s="4">
+        <v>477</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E163" s="8">
         <v>0</v>
       </c>
       <c r="F163" s="6">
@@ -5956,64 +5953,64 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E164" s="4">
+        <v>471</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E164" s="8">
         <v>0</v>
       </c>
       <c r="F164" s="6">
         <v>2</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E165" s="4">
+        <v>482</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E165" s="8">
         <v>0</v>
       </c>
       <c r="F165" s="6">
         <v>2</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E166" s="4">
+        <v>733</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E166" s="8">
         <v>1</v>
       </c>
       <c r="F166" s="6">
@@ -6022,18 +6019,18 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E167" s="4">
+        <v>733</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E167" s="8">
         <v>1</v>
       </c>
       <c r="F167" s="6">
@@ -6042,18 +6039,18 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E168" s="4">
+        <v>492</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E168" s="8">
         <v>0</v>
       </c>
       <c r="F168" s="6">
@@ -6062,18 +6059,18 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E169" s="4">
+        <v>495</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E169" s="8">
         <v>0</v>
       </c>
       <c r="F169" s="6">
@@ -6090,10 +6087,10 @@
       <c r="C170" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E170" s="4">
+      <c r="D170" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E170" s="8">
         <v>0</v>
       </c>
       <c r="F170" s="6">
@@ -6110,10 +6107,10 @@
       <c r="C171" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E171" s="4">
+      <c r="D171" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E171" s="8">
         <v>0</v>
       </c>
       <c r="F171" s="6">
@@ -6130,10 +6127,10 @@
       <c r="C172" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E172" s="4">
+      <c r="D172" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E172" s="8">
         <v>0</v>
       </c>
       <c r="F172" s="6">
@@ -6150,10 +6147,10 @@
       <c r="C173" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E173" s="4">
+      <c r="D173" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E173" s="8">
         <v>0</v>
       </c>
       <c r="F173" s="6">
@@ -6162,18 +6159,18 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E174" s="4">
+      <c r="D174" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E174" s="8">
         <v>0</v>
       </c>
       <c r="F174" s="6">
@@ -6182,18 +6179,18 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E175" s="4">
+        <v>498</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E175" s="8">
         <v>0</v>
       </c>
       <c r="F175" s="6">
@@ -6202,18 +6199,18 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E176" s="4">
+        <v>504</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E176" s="8">
         <v>0</v>
       </c>
       <c r="F176" s="6">
@@ -6222,18 +6219,18 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E177" s="4">
+        <v>507</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E177" s="8">
         <v>0</v>
       </c>
       <c r="F177" s="6">
@@ -6242,18 +6239,18 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E178" s="4">
+        <v>510</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E178" s="8">
         <v>0</v>
       </c>
       <c r="F178" s="6">
@@ -6262,41 +6259,41 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E179" s="4">
+        <v>513</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E179" s="8">
         <v>0</v>
       </c>
       <c r="F179" s="6">
         <v>2</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E180" s="4">
+        <v>516</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E180" s="8">
         <v>0</v>
       </c>
       <c r="F180" s="6">
@@ -6305,19 +6302,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D181" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E181" s="4">
-        <v>0</v>
+      <c r="D181" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E181" s="8">
+        <v>1</v>
       </c>
       <c r="F181" s="6">
         <v>1</v>
@@ -6325,18 +6322,18 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E182" s="4">
+        <v>732</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E182" s="8">
         <v>0</v>
       </c>
       <c r="F182" s="6">
@@ -6345,18 +6342,18 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E183" s="4">
+        <v>526</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E183" s="8">
         <v>0</v>
       </c>
       <c r="F183" s="6">
@@ -6365,18 +6362,18 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E184" s="4">
+        <v>523</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E184" s="8">
         <v>0</v>
       </c>
       <c r="F184" s="6">
@@ -6385,18 +6382,18 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E185" s="4">
+        <v>529</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E185" s="8">
         <v>0</v>
       </c>
       <c r="F185" s="6">
@@ -6405,18 +6402,18 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E186" s="4">
+        <v>535</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E186" s="8">
         <v>0</v>
       </c>
       <c r="F186" s="6">
@@ -6425,18 +6422,18 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E187" s="4">
+        <v>541</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E187" s="8">
         <v>0</v>
       </c>
       <c r="F187" s="6">
@@ -6445,18 +6442,18 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E188" s="4">
+        <v>544</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E188" s="8">
         <v>0</v>
       </c>
       <c r="F188" s="6">
@@ -6465,18 +6462,18 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E189" s="4">
+        <v>547</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E189" s="8">
         <v>0</v>
       </c>
       <c r="F189" s="6">
@@ -6485,87 +6482,87 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E190" s="4">
+        <v>550</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E190" s="8">
         <v>0</v>
       </c>
       <c r="F190" s="6">
         <v>2</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E191" s="4">
+        <v>553</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E191" s="8">
         <v>0</v>
       </c>
       <c r="F191" s="6">
         <v>2</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E192" s="4">
+        <v>556</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E192" s="8">
         <v>0</v>
       </c>
       <c r="F192" s="6">
         <v>2</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E193" s="4">
+        <v>559</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E193" s="8">
         <v>0</v>
       </c>
       <c r="F193" s="6">
@@ -6574,18 +6571,18 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E194" s="4">
+        <v>562</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E194" s="8">
         <v>0</v>
       </c>
       <c r="F194" s="6">
@@ -6594,18 +6591,18 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E195" s="4">
+        <v>565</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E195" s="8">
         <v>0</v>
       </c>
       <c r="F195" s="6">
@@ -6614,18 +6611,18 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E196" s="4">
+        <v>568</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E196" s="8">
         <v>0</v>
       </c>
       <c r="F196" s="6">
@@ -6634,18 +6631,18 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E197" s="4">
+        <v>733</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E197" s="8">
         <v>1</v>
       </c>
       <c r="F197" s="6">
@@ -6654,18 +6651,18 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E198" s="4">
+        <v>733</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E198" s="8">
         <v>1</v>
       </c>
       <c r="F198" s="6">
@@ -6674,18 +6671,18 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E199" s="4">
+        <v>578</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E199" s="8">
         <v>0</v>
       </c>
       <c r="F199" s="6">
@@ -6694,16 +6691,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E200" s="4">
         <v>0</v>
@@ -6714,16 +6711,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E201" s="4">
         <v>0</v>
@@ -6734,16 +6731,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E202" s="4">
         <v>0</v>
@@ -6754,16 +6751,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E203" s="4">
         <v>0</v>
@@ -6772,21 +6769,21 @@
         <v>2</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E204" s="4">
         <v>0</v>
@@ -6795,41 +6792,44 @@
         <v>2</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>594</v>
+        <v>734</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>595</v>
+        <v>735</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E205" s="4">
         <v>0</v>
       </c>
       <c r="F205" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E206" s="4">
         <v>0</v>
@@ -6840,16 +6840,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E207" s="4">
         <v>0</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E208" s="4">
         <v>0</v>
@@ -6880,16 +6880,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E209" s="4">
         <v>0</v>
@@ -6900,16 +6900,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E210" s="4">
         <v>0</v>
@@ -6920,16 +6920,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E211" s="4">
         <v>0</v>
@@ -6940,16 +6940,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E212" s="4">
         <v>0</v>
@@ -6960,59 +6960,59 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E213" s="4">
         <v>0</v>
       </c>
       <c r="F213" s="6">
-        <v>2</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E214" s="4">
         <v>0</v>
       </c>
       <c r="F214" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E215" s="4">
         <v>0</v>
@@ -7023,16 +7023,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E216" s="4">
         <v>0</v>
@@ -7043,16 +7043,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>627</v>
+        <v>536</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>628</v>
+        <v>537</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>629</v>
+        <v>538</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E217" s="4">
         <v>0</v>
@@ -7063,16 +7063,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E218" s="4">
         <v>0</v>
@@ -7083,16 +7083,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E219" s="4">
         <v>0</v>
@@ -7103,16 +7103,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E220" s="4">
         <v>0</v>
@@ -7123,16 +7123,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E221" s="4">
         <v>0</v>
@@ -7143,16 +7143,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E222" s="4">
         <v>0</v>
@@ -7163,59 +7163,59 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E223" s="4">
         <v>0</v>
       </c>
       <c r="F223" s="6">
-        <v>2</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E224" s="4">
         <v>0</v>
       </c>
       <c r="F224" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>398</v>
+        <v>644</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>399</v>
+        <v>645</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>400</v>
+        <v>646</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E225" s="4">
         <v>0</v>
@@ -7226,16 +7226,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>652</v>
+        <v>398</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>653</v>
+        <v>399</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E226" s="4">
         <v>0</v>
@@ -7246,16 +7246,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E227" s="4">
         <v>0</v>
@@ -7266,19 +7266,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>740</v>
+        <v>652</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E228" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" s="6">
         <v>1</v>
@@ -7286,62 +7286,62 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E229" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" s="6">
-        <v>2</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E230" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E231" s="4">
-        <v>0</v>
+        <v>659</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E231" s="8">
+        <v>1</v>
       </c>
       <c r="F231" s="6">
         <v>1</v>
@@ -7349,18 +7349,18 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E232" s="4">
+        <v>663</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E232" s="8">
         <v>0</v>
       </c>
       <c r="F232" s="6">
@@ -7369,18 +7369,18 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E233" s="4">
+        <v>666</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E233" s="8">
         <v>0</v>
       </c>
       <c r="F233" s="6">
@@ -7389,18 +7389,18 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E234" s="4">
+        <v>669</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E234" s="8">
         <v>0</v>
       </c>
       <c r="F234" s="6">
@@ -7409,18 +7409,18 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E235" s="4">
+        <v>672</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E235" s="8">
         <v>0</v>
       </c>
       <c r="F235" s="6">
@@ -7429,18 +7429,18 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E236" s="4">
+        <v>675</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E236" s="8">
         <v>0</v>
       </c>
       <c r="F236" s="6">
@@ -7449,19 +7449,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E237" s="4">
-        <v>1</v>
+        <v>678</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E237" s="8">
+        <v>0</v>
       </c>
       <c r="F237" s="6">
         <v>1</v>
@@ -7469,61 +7469,61 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D238" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E238" s="4">
-        <v>0</v>
+      <c r="D238" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E238" s="8">
+        <v>1</v>
       </c>
       <c r="F238" s="6">
-        <v>2</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E239" s="4">
-        <v>1</v>
+        <v>683</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E239" s="8">
+        <v>0</v>
       </c>
       <c r="F239" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E240" s="4">
+        <v>686</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E240" s="8">
         <v>1</v>
       </c>
       <c r="F240" s="6">
@@ -7532,19 +7532,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D241" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E241" s="4">
-        <v>0</v>
+      <c r="D241" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E241" s="8">
+        <v>1</v>
       </c>
       <c r="F241" s="6">
         <v>1</v>
@@ -7552,18 +7552,18 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E242" s="4">
+        <v>690</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E242" s="8">
         <v>0</v>
       </c>
       <c r="F242" s="6">
@@ -7572,62 +7572,62 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E243" s="4">
+        <v>693</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E243" s="8">
         <v>0</v>
       </c>
       <c r="F243" s="6">
-        <v>2</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="E244" s="4">
+        <v>696</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E244" s="8">
         <v>0</v>
       </c>
       <c r="F244" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E245" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245" s="6">
         <v>1</v>
@@ -7635,19 +7635,19 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E246" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" s="6">
         <v>1</v>
@@ -7655,22 +7655,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E247" s="4">
         <v>0</v>
       </c>
       <c r="F247" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7684,7 +7684,7 @@
         <v>716</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E248" s="4">
         <v>0</v>
@@ -7692,115 +7692,132 @@
       <c r="F248" s="6">
         <v>2</v>
       </c>
-      <c r="G248" s="7" t="s">
-        <v>734</v>
-      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E249" s="4">
         <v>0</v>
       </c>
       <c r="F249" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E250" s="4">
         <v>0</v>
       </c>
       <c r="F250" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E251" s="4">
         <v>0</v>
       </c>
       <c r="F251" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E252" s="4">
         <v>0</v>
       </c>
       <c r="F252" s="6">
-        <v>2</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E253" s="4">
+        <v>0</v>
+      </c>
+      <c r="F253" s="6">
+        <v>2</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="E253" s="4">
-        <v>1</v>
-      </c>
-      <c r="F253" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F254" s="6"/>
+      <c r="A254" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E254" s="4">
+        <v>1</v>
+      </c>
+      <c r="F254" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F255" s="6"/>
@@ -8528,8 +8545,11 @@
     <row r="496" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F496" s="6"/>
     </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F497" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G253"/>
+  <autoFilter ref="A1:G254"/>
   <sortState ref="A2:G497">
     <sortCondition ref="B1"/>
   </sortState>

--- a/doc/Страны для калькулятора.xlsx
+++ b/doc/Страны для калькулятора.xlsx
@@ -1513,9 +1513,6 @@
     <t xml:space="preserve">  Реюньон</t>
   </si>
   <si>
-    <t>Rйunion</t>
-  </si>
-  <si>
     <t>173</t>
   </si>
   <si>
@@ -2218,9 +2215,6 @@
     <t>São Tomé and Príncipe</t>
   </si>
   <si>
-    <t>Shengen</t>
-  </si>
-  <si>
     <t>253</t>
   </si>
   <si>
@@ -2231,6 +2225,12 @@
   </si>
   <si>
     <t xml:space="preserve">  Шенгенские страны</t>
+  </si>
+  <si>
+    <t>Schengen</t>
+  </si>
+  <si>
+    <t>Reunion</t>
   </si>
 </sst>
 </file>
@@ -2604,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2653,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -2693,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>5</v>
@@ -2893,7 +2893,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2939,7 +2939,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3022,7 +3022,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3065,7 +3065,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3231,7 +3231,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>103</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>106</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E37" s="8">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>115</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>118</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E39" s="8">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>121</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -3494,7 +3494,7 @@
         <v>129</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E43" s="8">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3517,7 +3517,7 @@
         <v>138</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>141</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>144</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>147</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E47" s="8">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E48" s="8">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>150</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E49" s="8">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3643,7 +3643,7 @@
         <v>156</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>159</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>162</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>165</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
@@ -3712,21 +3712,21 @@
         <v>2</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="D54" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>168</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>171</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E56" s="8">
         <v>0</v>
@@ -3786,10 +3786,10 @@
         <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>176</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E58" s="8">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>179</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E59" s="8">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>182</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>185</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E61" s="8">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>188</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E62" s="8">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>191</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E64" s="8">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>196</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E65" s="8">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>199</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E66" s="8">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>201</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E67" s="8">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>204</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E68" s="8">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>207</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E69" s="8">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>210</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E70" s="8">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>213</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E71" s="8">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>305</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E72" s="8">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>216</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E73" s="8">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>219</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E74" s="8">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>222</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E75" s="8">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>253</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E76" s="8">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E77" s="8">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>228</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E78" s="8">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>231</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E79" s="8">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>234</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E80" s="8">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>237</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E81" s="8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>240</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E82" s="8">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>243</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>246</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E84" s="8">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>248</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E85" s="8">
         <v>1</v>
@@ -4378,10 +4378,10 @@
         <v>250</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E86" s="8">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>256</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E87" s="8">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>259</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E88" s="8">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>262</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E89" s="8">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>265</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E90" s="8">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>268</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E91" s="8">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>271</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E92" s="8">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>274</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E93" s="8">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>277</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E94" s="8">
         <v>0</v>
@@ -4561,10 +4561,10 @@
         <v>279</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E95" s="8">
         <v>1</v>
@@ -4584,7 +4584,7 @@
         <v>282</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>285</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E97" s="8">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>288</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E98" s="8">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>288</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E99" s="8">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>308</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E100" s="8">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>293</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E101" s="8">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>296</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E102" s="8">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>299</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E103" s="8">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>317</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E104" s="8">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4770,7 +4770,7 @@
         <v>320</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E105" s="8">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>323</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E106" s="8">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4813,7 +4813,7 @@
         <v>326</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E107" s="8">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>332</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E108" s="8">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E109" s="8">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>337</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E110" s="8">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>340</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E111" s="8">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>343</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E112" s="8">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>346</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E113" s="8">
         <v>0</v>
@@ -4950,10 +4950,10 @@
         <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E114" s="8">
         <v>1</v>
@@ -4970,10 +4970,10 @@
         <v>350</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E115" s="8">
         <v>1</v>
@@ -4990,10 +4990,10 @@
         <v>352</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E116" s="8">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>355</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E117" s="8">
         <v>0</v>
@@ -5033,7 +5033,7 @@
         <v>358</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E118" s="8">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>361</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E119" s="8">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>364</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E120" s="8">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>367</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E121" s="8">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>47</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E122" s="8">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>373</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E123" s="8">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>376</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E124" s="8">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>379</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E125" s="8">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>382</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E126" s="8">
         <v>0</v>
@@ -5210,10 +5210,10 @@
         <v>384</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E127" s="8">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>387</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E128" s="8">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>390</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E129" s="8">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>393</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E130" s="8">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>396</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E131" s="8">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>402</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E132" s="8">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>405</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E133" s="8">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         <v>407</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E134" s="8">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>410</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E135" s="8">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>413</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E136" s="8">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>416</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E137" s="8">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>422</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E138" s="8">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>425</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E139" s="8">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>428</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E140" s="8">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>431</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E141" s="8">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>434</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E142" s="8">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>437</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E143" s="8">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>44</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E144" s="8">
         <v>0</v>
@@ -5573,10 +5573,10 @@
         <v>439</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E145" s="8">
         <v>1</v>
@@ -5596,7 +5596,7 @@
         <v>442</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E146" s="8">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5619,7 +5619,7 @@
         <v>445</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E147" s="8">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>448</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E148" s="8">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>451</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E149" s="8">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>453</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E150" s="8">
         <v>1</v>
@@ -5699,7 +5699,7 @@
         <v>459</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E151" s="8">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>462</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E152" s="8">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>419</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E153" s="8">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>456</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E154" s="8">
         <v>0</v>
@@ -5770,16 +5770,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D155" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E155" s="8">
         <v>0</v>
@@ -5790,16 +5790,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="D156" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E156" s="8">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>329</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E157" s="8">
         <v>0</v>
@@ -5839,7 +5839,7 @@
         <v>485</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E158" s="8">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>465</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E159" s="8">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>468</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E160" s="8">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>471</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E161" s="8">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>474</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E162" s="8">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
         <v>477</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E163" s="8">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>471</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E164" s="8">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>2</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
         <v>482</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E165" s="8">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6005,10 +6005,10 @@
         <v>487</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E166" s="8">
         <v>1</v>
@@ -6025,10 +6025,10 @@
         <v>489</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E167" s="8">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>492</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E168" s="8">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>495</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E169" s="8">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E170" s="8">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>302</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E171" s="8">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>311</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E172" s="8">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>314</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E173" s="8">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>370</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E174" s="8">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>497</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>498</v>
+        <v>737</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E175" s="8">
         <v>0</v>
@@ -6199,16 +6199,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="D176" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E176" s="8">
         <v>0</v>
@@ -6219,16 +6219,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="D177" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E177" s="8">
         <v>0</v>
@@ -6239,16 +6239,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="D178" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E178" s="8">
         <v>0</v>
@@ -6259,16 +6259,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="D179" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E179" s="8">
         <v>0</v>
@@ -6277,21 +6277,21 @@
         <v>2</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="D180" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E180" s="8">
         <v>0</v>
@@ -6302,16 +6302,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E181" s="8">
         <v>1</v>
@@ -6322,16 +6322,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E182" s="8">
         <v>0</v>
@@ -6342,16 +6342,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="D183" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E183" s="8">
         <v>0</v>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="D184" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E184" s="8">
         <v>0</v>
@@ -6382,16 +6382,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="D185" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E185" s="8">
         <v>0</v>
@@ -6402,16 +6402,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="D186" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E186" s="8">
         <v>0</v>
@@ -6422,16 +6422,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="D187" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E187" s="8">
         <v>0</v>
@@ -6442,16 +6442,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="D188" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E188" s="8">
         <v>0</v>
@@ -6462,16 +6462,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="D189" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E189" s="8">
         <v>0</v>
@@ -6482,16 +6482,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="D190" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E190" s="8">
         <v>0</v>
@@ -6500,21 +6500,21 @@
         <v>2</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="D191" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E191" s="8">
         <v>0</v>
@@ -6523,21 +6523,21 @@
         <v>2</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="D192" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E192" s="8">
         <v>0</v>
@@ -6546,21 +6546,21 @@
         <v>2</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="D193" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E193" s="8">
         <v>0</v>
@@ -6571,16 +6571,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="D194" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E194" s="8">
         <v>0</v>
@@ -6591,16 +6591,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="D195" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E195" s="8">
         <v>0</v>
@@ -6611,16 +6611,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="D196" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E196" s="8">
         <v>0</v>
@@ -6631,16 +6631,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C197" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E197" s="8">
         <v>1</v>
@@ -6651,16 +6651,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="C198" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E198" s="8">
         <v>1</v>
@@ -6671,16 +6671,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="D199" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E199" s="8">
         <v>0</v>
@@ -6691,16 +6691,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E200" s="4">
         <v>0</v>
@@ -6711,16 +6711,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E201" s="4">
         <v>0</v>
@@ -6731,16 +6731,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E202" s="4">
         <v>0</v>
@@ -6751,16 +6751,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="C203" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E203" s="4">
         <v>0</v>
@@ -6769,21 +6769,21 @@
         <v>2</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E204" s="4">
         <v>0</v>
@@ -6792,21 +6792,21 @@
         <v>2</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E205" s="4">
         <v>0</v>
@@ -6815,21 +6815,21 @@
         <v>2</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E206" s="4">
         <v>0</v>
@@ -6840,16 +6840,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E207" s="4">
         <v>0</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E208" s="4">
         <v>0</v>
@@ -6880,16 +6880,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E209" s="4">
         <v>0</v>
@@ -6900,16 +6900,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>604</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E210" s="4">
         <v>0</v>
@@ -6920,16 +6920,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E211" s="4">
         <v>0</v>
@@ -6940,16 +6940,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E212" s="4">
         <v>0</v>
@@ -6960,16 +6960,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E213" s="4">
         <v>0</v>
@@ -6980,16 +6980,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E214" s="4">
         <v>0</v>
@@ -6998,21 +6998,21 @@
         <v>2</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E215" s="4">
         <v>0</v>
@@ -7023,16 +7023,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E216" s="4">
         <v>0</v>
@@ -7043,16 +7043,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E217" s="4">
         <v>0</v>
@@ -7063,16 +7063,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E218" s="4">
         <v>0</v>
@@ -7083,16 +7083,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E219" s="4">
         <v>0</v>
@@ -7103,16 +7103,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E220" s="4">
         <v>0</v>
@@ -7123,16 +7123,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E221" s="4">
         <v>0</v>
@@ -7143,16 +7143,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E222" s="4">
         <v>0</v>
@@ -7163,16 +7163,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E223" s="4">
         <v>0</v>
@@ -7183,16 +7183,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E224" s="4">
         <v>0</v>
@@ -7201,21 +7201,21 @@
         <v>2</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E225" s="4">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         <v>399</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E226" s="4">
         <v>0</v>
@@ -7246,16 +7246,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E227" s="4">
         <v>0</v>
@@ -7266,16 +7266,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E228" s="4">
         <v>0</v>
@@ -7286,16 +7286,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E229" s="4">
         <v>1</v>
@@ -7306,16 +7306,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="D230" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E230" s="4">
         <v>0</v>
@@ -7324,21 +7324,21 @@
         <v>2</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>733</v>
+      <c r="C231" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E231" s="8">
         <v>1</v>
@@ -7349,16 +7349,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="D232" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E232" s="8">
         <v>0</v>
@@ -7369,16 +7369,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C233" s="9" t="s">
-        <v>667</v>
-      </c>
       <c r="D233" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E233" s="8">
         <v>0</v>
@@ -7389,16 +7389,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="C234" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C234" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="D234" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E234" s="8">
         <v>0</v>
@@ -7409,16 +7409,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>673</v>
-      </c>
       <c r="D235" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E235" s="8">
         <v>0</v>
@@ -7429,16 +7429,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C236" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>676</v>
-      </c>
       <c r="D236" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E236" s="8">
         <v>0</v>
@@ -7449,16 +7449,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="C237" s="9" t="s">
-        <v>679</v>
-      </c>
       <c r="D237" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E237" s="8">
         <v>0</v>
@@ -7469,16 +7469,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>733</v>
+      <c r="C238" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E238" s="8">
         <v>1</v>
@@ -7489,16 +7489,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="C239" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="D239" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E239" s="8">
         <v>0</v>
@@ -7507,21 +7507,21 @@
         <v>2</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>733</v>
+      <c r="C240" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E240" s="8">
         <v>1</v>
@@ -7532,16 +7532,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>733</v>
+      <c r="C241" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E241" s="8">
         <v>1</v>
@@ -7552,16 +7552,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="C242" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>691</v>
-      </c>
       <c r="D242" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E242" s="8">
         <v>0</v>
@@ -7572,16 +7572,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>694</v>
-      </c>
       <c r="D243" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E243" s="8">
         <v>0</v>
@@ -7592,16 +7592,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C244" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>697</v>
-      </c>
       <c r="D244" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E244" s="8">
         <v>0</v>
@@ -7610,21 +7610,21 @@
         <v>2</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="D245" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E245" s="4">
         <v>0</v>
@@ -7635,16 +7635,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>704</v>
-      </c>
       <c r="C246" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E246" s="4">
         <v>1</v>
@@ -7655,16 +7655,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>707</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E247" s="4">
         <v>0</v>
@@ -7675,16 +7675,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E248" s="4">
         <v>0</v>
@@ -7695,16 +7695,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E249" s="4">
         <v>0</v>
@@ -7713,21 +7713,21 @@
         <v>2</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>713</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E250" s="4">
         <v>0</v>
@@ -7738,16 +7738,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>722</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E251" s="4">
         <v>0</v>
@@ -7758,16 +7758,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E252" s="4">
         <v>0</v>
@@ -7778,16 +7778,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E253" s="4">
         <v>0</v>
@@ -7796,21 +7796,21 @@
         <v>2</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E254" s="4">
         <v>1</v>
